--- a/Data_files/Rotterdam_train_adjacency.xlsx
+++ b/Data_files/Rotterdam_train_adjacency.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27504"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_1637C59D38F398728F3EC4BEB3A7EDE23773F567" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B072195-4925-402A-9B27-4756EC83283F}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimEW\PycharmProjects\Design_in_Network_group_8\Data_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B1715E-178E-48BE-BC6E-CAB5819635EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -88,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,7 +126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -137,9 +142,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -177,7 +182,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -283,7 +288,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -425,7 +430,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -436,12 +441,15 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -547,7 +555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -600,7 +608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -629,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -653,7 +661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -682,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -706,7 +714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -759,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -791,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -812,7 +820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -829,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -844,13 +852,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -865,7 +873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -891,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -918,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -971,7 +979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1000,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1024,7 +1032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1077,7 +1085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1130,7 +1138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1183,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1401,13 +1409,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E0B6E4-7A54-47C1-9DB2-4980C3ECE152}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E0B6E4-7A54-47C1-9DB2-4980C3ECE152}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6ba023f1-a19b-4eec-904c-052d1f1cb5e0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A916EAA-9C41-45E2-9615-1537E158943C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A916EAA-9C41-45E2-9615-1537E158943C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6184B6F-9C77-4F99-9C89-9DA6F4E4B4A9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6184B6F-9C77-4F99-9C89-9DA6F4E4B4A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Data_files/Rotterdam_train_adjacency.xlsx
+++ b/Data_files/Rotterdam_train_adjacency.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimEW\PycharmProjects\Design_in_Network_group_8\Data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B1715E-178E-48BE-BC6E-CAB5819635EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBD71ED-0FD7-45DD-BDA4-B27BFD071513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6430" yWindow="3710" windowWidth="19170" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Locations</t>
   </si>
@@ -87,16 +109,26 @@
   </si>
   <si>
     <t>Zoetermeer</t>
+  </si>
+  <si>
+    <t>Schiedam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,8 +154,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -449,7 +482,7 @@
     <col min="1" max="1" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,8 +534,11 @@
       <c r="Q1">
         <v>13</v>
       </c>
+      <c r="R1">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -515,47 +551,51 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
+      <c r="E2" s="1" cm="1">
+        <f t="array" ref="E2:R2">TRANSPOSE(D3:D16)</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -571,44 +611,48 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
+      <c r="F3" s="1" cm="1">
+        <f t="array" ref="F3:R3">TRANSPOSE(E4:E16)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -627,41 +671,45 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
+      <c r="G4" s="1" cm="1">
+        <f t="array" ref="G4:R4">TRANSPOSE(F5:F16)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -683,38 +731,42 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
+      <c r="H5" s="1" cm="1">
+        <f t="array" ref="H5:R5">TRANSPOSE(G6:G16)</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -739,35 +791,39 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
+      <c r="I6" s="1" cm="1">
+        <f t="array" ref="I6:R6">TRANSPOSE(H7:H16)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -795,32 +851,36 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
+      <c r="J7" s="1" cm="1">
+        <f t="array" ref="J7:R7">TRANSPOSE(I8:I16)</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -851,29 +911,33 @@
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
+      <c r="K8" s="1" cm="1">
+        <f t="array" ref="K8:R8">TRANSPOSE(J9:J16)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -907,26 +971,30 @@
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
+      <c r="L9" s="1" cm="1">
+        <f t="array" ref="L9:R9">TRANSPOSE(K10:K16)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -963,23 +1031,27 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
+      <c r="M10" s="1" cm="1">
+        <f t="array" ref="M10:R10">TRANSPOSE(L11:L16)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1019,228 +1091,304 @@
       <c r="M11">
         <v>0</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
+      <c r="N11" s="1" cm="1">
+        <f t="array" ref="N11:R11">TRANSPOSE(M12:M16)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>51.922169573927299</v>
+      </c>
+      <c r="C12">
+        <v>4.4098035896042003</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1" cm="1">
+        <f t="array" ref="O12:R12">TRANSPOSE(N13:N16)</f>
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>51.845799999999997</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>4.3212999999999999</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1" cm="1">
+        <f t="array" ref="P13:R13">TRANSPOSE(O14:O16)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>51.9129</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>4.3623000000000003</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1" cm="1">
+        <f t="array" ref="Q14:R14">TRANSPOSE(P15:P16)</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>51.999200000000002</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>4.2088999999999999</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1" cm="1">
+        <f t="array" ref="R15">TRANSPOSE(Q16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>52.057400000000001</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>4.4936999999999996</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>0</v>
       </c>
     </row>
@@ -1250,6 +1398,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000967D3B9FC1DD84EB00B55E5790AB85E" ma:contentTypeVersion="4" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="92ec66a21d0d7142cf1fb1ae8fa08641">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6ba023f1-a19b-4eec-904c-052d1f1cb5e0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="62a86672aac255264bf3f3decc56659c" ns2:_="">
     <xsd:import namespace="6ba023f1-a19b-4eec-904c-052d1f1cb5e0"/>
@@ -1393,7 +1547,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1402,13 +1556,16 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6184B6F-9C77-4F99-9C89-9DA6F4E4B4A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E0B6E4-7A54-47C1-9DB2-4980C3ECE152}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1426,19 +1583,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A916EAA-9C41-45E2-9615-1537E158943C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6184B6F-9C77-4F99-9C89-9DA6F4E4B4A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Data_files/Rotterdam_train_adjacency.xlsx
+++ b/Data_files/Rotterdam_train_adjacency.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimEW\PycharmProjects\Design_in_Network_group_8\Data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBD71ED-0FD7-45DD-BDA4-B27BFD071513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F9E81E-35FD-4112-8E9E-3E92018A024B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6430" yWindow="3710" windowWidth="19170" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Locations</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>Schiedam</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Employees</t>
   </si>
 </sst>
 </file>
@@ -471,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -482,7 +488,7 @@
     <col min="1" max="1" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,53 +498,59 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
       </c>
       <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
         <v>2</v>
       </c>
-      <c r="G1">
+      <c r="I1">
         <v>3</v>
       </c>
-      <c r="H1">
+      <c r="J1">
         <v>4</v>
       </c>
-      <c r="I1">
+      <c r="K1">
         <v>5</v>
       </c>
-      <c r="J1">
+      <c r="L1">
         <v>6</v>
       </c>
-      <c r="K1">
+      <c r="M1">
         <v>7</v>
       </c>
-      <c r="L1">
+      <c r="N1">
         <v>8</v>
       </c>
-      <c r="M1">
+      <c r="O1">
         <v>9</v>
       </c>
-      <c r="N1">
+      <c r="P1">
         <v>10</v>
       </c>
-      <c r="O1">
+      <c r="Q1">
         <v>11</v>
       </c>
-      <c r="P1">
+      <c r="R1">
         <v>12</v>
       </c>
-      <c r="Q1">
+      <c r="S1">
         <v>13</v>
       </c>
-      <c r="R1">
+      <c r="T1">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -549,17 +561,17 @@
         <v>4.3628</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" cm="1">
-        <f t="array" ref="E2:R2">TRANSPOSE(D3:D16)</f>
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
+        <v>106086</v>
+      </c>
+      <c r="E2">
+        <v>111.3943676</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" cm="1">
+        <f t="array" ref="G2:T2">TRANSPOSE(F3:F16)</f>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -568,34 +580,40 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="1">
         <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
         <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="1">
         <v>0</v>
       </c>
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -606,19 +624,19 @@
         <v>4.3007</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>562839</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" cm="1">
-        <f t="array" ref="F3:R3">TRANSPOSE(E4:E16)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
+        <v>591.0025306</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" cm="1">
+        <f t="array" ref="H3:T3">TRANSPOSE(G4:G16)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -646,13 +664,19 @@
         <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -663,23 +687,23 @@
         <v>4.6905000000000001</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>121434</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>127.5103561</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="1" cm="1">
-        <f t="array" ref="G4:R4">TRANSPOSE(F5:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" cm="1">
+        <f t="array" ref="I4:T4">TRANSPOSE(H5:H16)</f>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -691,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
@@ -708,8 +732,14 @@
       <c r="R4" s="1">
         <v>0</v>
       </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -720,10 +750,10 @@
         <v>4.7083000000000004</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>75316</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>79.084687790000004</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -731,15 +761,15 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" s="1" cm="1">
-        <f t="array" ref="H5:R5">TRANSPOSE(G6:G16)</f>
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" cm="1">
+        <f t="array" ref="J5:T5">TRANSPOSE(I6:I16)</f>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -763,10 +793,16 @@
         <v>0</v>
       </c>
       <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -777,28 +813,28 @@
         <v>4.5518999999999998</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>110650</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>116.1867426</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" s="1" cm="1">
-        <f t="array" ref="I6:R6">TRANSPOSE(H7:H16)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" cm="1">
+        <f t="array" ref="K6:T6">TRANSPOSE(J7:J16)</f>
         <v>0</v>
       </c>
       <c r="L6" s="1">
@@ -808,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
@@ -822,8 +858,14 @@
       <c r="R6" s="1">
         <v>0</v>
       </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -834,44 +876,44 @@
         <v>4.4890999999999996</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>110650</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>116.1867426</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" s="1" cm="1">
-        <f t="array" ref="J7:R7">TRANSPOSE(I8:I16)</f>
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" cm="1">
+        <f t="array" ref="L7:T7">TRANSPOSE(K8:K16)</f>
+        <v>1</v>
       </c>
       <c r="M7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="1">
         <v>0</v>
@@ -879,8 +921,14 @@
       <c r="R7" s="1">
         <v>0</v>
       </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -891,34 +939,34 @@
         <v>4.4794</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>110650</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>116.1867426</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1" cm="1">
-        <f t="array" ref="K8:R8">TRANSPOSE(J9:J16)</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1</v>
-      </c>
-      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" cm="1">
+        <f t="array" ref="M8:T8">TRANSPOSE(L9:L16)</f>
         <v>0</v>
       </c>
       <c r="N8" s="1">
@@ -928,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="1">
         <v>0</v>
@@ -936,8 +984,14 @@
       <c r="R8" s="1">
         <v>0</v>
       </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -948,19 +1002,19 @@
         <v>4.5313999999999997</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>110650</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>116.1867426</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -971,18 +1025,18 @@
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="L9" s="1" cm="1">
-        <f t="array" ref="L9:R9">TRANSPOSE(K10:K16)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1</v>
-      </c>
-      <c r="N9" s="1">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" cm="1">
+        <f t="array" ref="N9:T9">TRANSPOSE(M10:M16)</f>
         <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="1">
         <v>0</v>
@@ -993,8 +1047,14 @@
       <c r="R9" s="1">
         <v>0</v>
       </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1005,10 +1065,10 @@
         <v>4.4814999999999996</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>110650</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>116.1867426</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1017,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1029,16 +1089,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1" cm="1">
-        <f t="array" ref="M10:R10">TRANSPOSE(L11:L16)</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1" cm="1">
+        <f t="array" ref="O10:T10">TRANSPOSE(N11:N16)</f>
         <v>0</v>
       </c>
       <c r="P10" s="1">
@@ -1050,8 +1110,14 @@
       <c r="R10" s="1">
         <v>0</v>
       </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1062,10 +1128,10 @@
         <v>4.5098000000000003</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>110650</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>116.1867426</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1077,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1089,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1" cm="1">
-        <f t="array" ref="N11:R11">TRANSPOSE(M12:M16)</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1" cm="1">
+        <f t="array" ref="P11:T11">TRANSPOSE(O12:O16)</f>
         <v>0</v>
       </c>
       <c r="Q11" s="1">
@@ -1107,8 +1173,14 @@
       <c r="R11" s="1">
         <v>0</v>
       </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1119,13 +1191,13 @@
         <v>4.4098035896042003</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>77999</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>81.901940670000002</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1134,16 +1206,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1151,21 +1223,27 @@
       <c r="N12">
         <v>0</v>
       </c>
-      <c r="O12" s="1" cm="1">
-        <f t="array" ref="O12:R12">TRANSPOSE(N13:N16)</f>
-        <v>1</v>
-      </c>
-      <c r="P12" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="1">
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1" cm="1">
+        <f t="array" ref="Q12:T12">TRANSPOSE(P13:P16)</f>
         <v>1</v>
       </c>
       <c r="R12" s="1">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1</v>
+      </c>
+      <c r="T12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1176,10 +1254,10 @@
         <v>4.3212999999999999</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>72561</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>76.191832160000004</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1206,23 +1284,29 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-      <c r="P13" s="1" cm="1">
-        <f t="array" ref="P13:R13">TRANSPOSE(O14:O16)</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>0</v>
-      </c>
-      <c r="R13" s="1">
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1" cm="1">
+        <f t="array" ref="R13:T13">TRANSPOSE(Q14:Q16)</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1233,10 +1317,10 @@
         <v>4.3623000000000003</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>75079</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>78.835828710000001</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1263,23 +1347,29 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-      <c r="P14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="1" cm="1">
-        <f t="array" ref="Q14:R14">TRANSPOSE(P15:P16)</f>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
       </c>
+      <c r="S14" s="1" cm="1">
+        <f t="array" ref="S14:T14">TRANSPOSE(R15:R16)</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1290,16 +1380,16 @@
         <v>4.2088999999999999</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>114887</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>120.635755</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1320,23 +1410,29 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-      <c r="R15" s="1" cm="1">
-        <f t="array" ref="R15">TRANSPOSE(Q16)</f>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1" cm="1">
+        <f t="array" ref="T15">TRANSPOSE(S16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1347,10 +1443,10 @@
         <v>4.4936999999999996</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>126998</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>133.3527694</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1362,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1389,6 +1485,12 @@
         <v>0</v>
       </c>
       <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
         <v>0</v>
       </c>
     </row>
@@ -1398,9 +1500,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1548,19 +1653,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6184B6F-9C77-4F99-9C89-9DA6F4E4B4A9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A916EAA-9C41-45E2-9615-1537E158943C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1584,9 +1685,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A916EAA-9C41-45E2-9615-1537E158943C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6184B6F-9C77-4F99-9C89-9DA6F4E4B4A9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Data_files/Rotterdam_train_adjacency.xlsx
+++ b/Data_files/Rotterdam_train_adjacency.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimEW\PycharmProjects\Design_in_Network_group_8\Data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F9E81E-35FD-4112-8E9E-3E92018A024B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E78F149-1645-4FC3-9E0D-62043400C4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="19170" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Locations</t>
   </si>
@@ -118,12 +118,18 @@
   </si>
   <si>
     <t>Employees</t>
+  </si>
+  <si>
+    <t>Office Periphery</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,9 +166,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" zoomScale="54" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -488,7 +495,7 @@
     <col min="1" max="1" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -549,8 +556,11 @@
       <c r="T1">
         <v>14</v>
       </c>
+      <c r="U1">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -570,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" cm="1">
-        <f t="array" ref="G2:T2">TRANSPOSE(F3:F16)</f>
+        <f t="array" ref="G2:U2">TRANSPOSE(F3:F17)</f>
         <v>1</v>
       </c>
       <c r="H2" s="1">
@@ -580,16 +590,16 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>
@@ -598,22 +608,25 @@
         <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="1">
         <v>0</v>
       </c>
       <c r="S2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" s="1">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -636,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" cm="1">
-        <f t="array" ref="H3:T3">TRANSPOSE(G4:G16)</f>
+        <f t="array" ref="H3:U3">TRANSPOSE(G4:G17)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -670,13 +683,16 @@
         <v>0</v>
       </c>
       <c r="S3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" s="1">
         <v>1</v>
       </c>
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -702,23 +718,23 @@
         <v>0</v>
       </c>
       <c r="I4" s="1" cm="1">
-        <f t="array" ref="I4:T4">TRANSPOSE(H5:H16)</f>
+        <f t="array" ref="I4:U4">TRANSPOSE(H5:H17)</f>
         <v>0</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
@@ -738,8 +754,11 @@
       <c r="T4" s="1">
         <v>0</v>
       </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -768,11 +787,11 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" cm="1">
-        <f t="array" ref="J5:T5">TRANSPOSE(I6:I16)</f>
-        <v>1</v>
+        <f t="array" ref="J5:U5">TRANSPOSE(I6:I17)</f>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
@@ -799,81 +818,87 @@
         <v>0</v>
       </c>
       <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>51.934759649404</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4.4394214527832796</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" cm="1">
+        <f t="array" ref="K6:U6">TRANSPOSE(J7:J17)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>51.952199999999998</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>4.5518999999999998</v>
-      </c>
-      <c r="D6">
-        <v>110650</v>
-      </c>
-      <c r="E6">
-        <v>116.1867426</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" cm="1">
-        <f t="array" ref="K6:T6">TRANSPOSE(J7:J16)</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1">
-        <v>0</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>51.92</v>
-      </c>
-      <c r="C7">
-        <v>4.4890999999999996</v>
       </c>
       <c r="D7">
         <v>110650</v>
@@ -888,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -900,11 +925,11 @@
         <v>0</v>
       </c>
       <c r="L7" s="1" cm="1">
-        <f t="array" ref="L7:T7">TRANSPOSE(K8:K16)</f>
-        <v>1</v>
+        <f t="array" ref="L7:U7">TRANSPOSE(K8:K17)</f>
+        <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="1">
         <v>0</v>
@@ -913,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="P7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1">
         <v>0</v>
@@ -927,16 +952,19 @@
       <c r="T7" s="1">
         <v>0</v>
       </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>51.922499999999999</v>
+        <v>51.92</v>
       </c>
       <c r="C8">
-        <v>4.4794</v>
+        <v>4.4890999999999996</v>
       </c>
       <c r="D8">
         <v>110650</v>
@@ -945,32 +973,32 @@
         <v>116.1867426</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8" s="1" cm="1">
-        <f t="array" ref="M8:T8">TRANSPOSE(L9:L16)</f>
-        <v>0</v>
+        <f t="array" ref="M8:U8">TRANSPOSE(L9:L17)</f>
+        <v>1</v>
       </c>
       <c r="N8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
         <v>0</v>
@@ -979,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
@@ -990,16 +1018,19 @@
       <c r="T8" s="1">
         <v>0</v>
       </c>
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>51.880600000000001</v>
+        <v>51.922499999999999</v>
       </c>
       <c r="C9">
-        <v>4.5313999999999997</v>
+        <v>4.4794</v>
       </c>
       <c r="D9">
         <v>110650</v>
@@ -1008,31 +1039,31 @@
         <v>116.1867426</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9" s="1" cm="1">
-        <f t="array" ref="N9:T9">TRANSPOSE(M10:M16)</f>
+        <f t="array" ref="N9:U9">TRANSPOSE(M10:M17)</f>
         <v>0</v>
       </c>
       <c r="O9" s="1">
@@ -1042,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="1">
         <v>0</v>
@@ -1053,16 +1084,19 @@
       <c r="T9" s="1">
         <v>0</v>
       </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>51.942100000000003</v>
+        <v>51.880600000000001</v>
       </c>
       <c r="C10">
-        <v>4.4814999999999996</v>
+        <v>4.5313999999999997</v>
       </c>
       <c r="D10">
         <v>110650</v>
@@ -1077,19 +1111,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1098,11 +1132,11 @@
         <v>0</v>
       </c>
       <c r="O10" s="1" cm="1">
-        <f t="array" ref="O10:T10">TRANSPOSE(N11:N16)</f>
+        <f t="array" ref="O10:U10">TRANSPOSE(N11:N17)</f>
         <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="1">
         <v>0</v>
@@ -1116,16 +1150,19 @@
       <c r="T10" s="1">
         <v>0</v>
       </c>
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>51.905000000000001</v>
+        <v>51.942100000000003</v>
       </c>
       <c r="C11">
-        <v>4.5098000000000003</v>
+        <v>4.4814999999999996</v>
       </c>
       <c r="D11">
         <v>110650</v>
@@ -1164,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="1" cm="1">
-        <f t="array" ref="P11:T11">TRANSPOSE(O12:O16)</f>
+        <f t="array" ref="P11:U11">TRANSPOSE(O12:O17)</f>
         <v>0</v>
       </c>
       <c r="Q11" s="1">
@@ -1179,320 +1216,407 @@
       <c r="T11" s="1">
         <v>0</v>
       </c>
+      <c r="U11" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>51.905000000000001</v>
+      </c>
+      <c r="C12">
+        <v>4.5098000000000003</v>
+      </c>
+      <c r="D12">
+        <v>110650</v>
+      </c>
+      <c r="E12">
+        <v>116.1867426</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1" cm="1">
+        <f t="array" ref="Q12:U12">TRANSPOSE(P13:P17)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>51.922169573927299</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>4.4098035896042003</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>77999</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>81.901940670000002</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="1" cm="1">
-        <f t="array" ref="Q12:T12">TRANSPOSE(P13:P16)</f>
-        <v>1</v>
-      </c>
-      <c r="R12" s="1">
-        <v>1</v>
-      </c>
-      <c r="S12" s="1">
-        <v>1</v>
-      </c>
-      <c r="T12" s="1">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1" cm="1">
+        <f t="array" ref="R13:U13">TRANSPOSE(Q14:Q17)</f>
+        <v>1</v>
+      </c>
+      <c r="S13" s="1">
+        <v>1</v>
+      </c>
+      <c r="T13" s="1">
+        <v>1</v>
+      </c>
+      <c r="U13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>51.845799999999997</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>4.3212999999999999</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>72561</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>76.191832160000004</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13" s="1" cm="1">
-        <f t="array" ref="R13:T13">TRANSPOSE(Q14:Q16)</f>
-        <v>0</v>
-      </c>
-      <c r="S13" s="1">
-        <v>0</v>
-      </c>
-      <c r="T13" s="1">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1" cm="1">
+        <f t="array" ref="S14:U14">TRANSPOSE(R15:R17)</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>51.9129</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>4.3623000000000003</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>75079</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>78.835828710000001</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14" s="1">
-        <v>0</v>
-      </c>
-      <c r="S14" s="1" cm="1">
-        <f t="array" ref="S14:T14">TRANSPOSE(R15:R16)</f>
-        <v>0</v>
-      </c>
-      <c r="T14" s="1">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1" cm="1">
+        <f t="array" ref="T15:U15">TRANSPOSE(S16:S17)</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>51.999200000000002</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>4.2088999999999999</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>114887</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>120.635755</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15" s="1" cm="1">
-        <f t="array" ref="T15">TRANSPOSE(S16)</f>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1" cm="1">
+        <f t="array" ref="U16">TRANSPOSE(T17)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>52.057400000000001</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>4.4936999999999996</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>126998</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>133.3527694</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
